--- a/production/Womens New data sheet.xlsx
+++ b/production/Womens New data sheet.xlsx
@@ -55,9 +55,6 @@
     <t>STYLE NO</t>
   </si>
   <si>
-    <t>COLOR</t>
-  </si>
-  <si>
     <t>SLEEVES</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>FABRIC1</t>
+  </si>
+  <si>
+    <t>COLOR1</t>
   </si>
 </sst>
 </file>
@@ -602,6 +602,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,36 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,7 +1437,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,31 +1473,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>7</v>
@@ -1518,13 +1518,13 @@
         <v>11</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="23" t="s">
-        <v>92</v>
-      </c>
       <c r="T1" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,225 +1550,225 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <v>749</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4">
         <v>749</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4">
         <v>749</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
         <v>749</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
       <c r="B7" s="34"/>
@@ -1776,897 +1776,897 @@
         <v>2</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13">
         <v>749</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13">
         <v>749</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="34"/>
       <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13">
         <v>749</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="34"/>
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13">
         <v>749</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15">
         <v>749</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15">
         <v>749</v>
       </c>
       <c r="N12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15">
         <v>749</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15">
         <v>749</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="32">
         <v>4</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3">
         <v>899</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <v>899</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="Q16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>899</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="Q17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <v>899</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="36">
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17">
         <v>999</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Q19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="T19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="20" spans="1:20" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17">
         <v>999</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="Q20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17">
         <v>999</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="Q21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S21" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17">
         <v>999</v>
       </c>
       <c r="N22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S22" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="30">
         <v>6</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -2680,31 +2680,31 @@
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -2718,31 +2718,31 @@
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -2756,31 +2756,31 @@
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2794,7 +2794,7 @@
       <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="27">
         <v>7</v>
       </c>
       <c r="B27" s="34"/>
@@ -2802,415 +2802,415 @@
         <v>2</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="34"/>
       <c r="C28" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="34"/>
       <c r="C29" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="34"/>
       <c r="C30" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="38">
         <v>8</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="12" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3280,218 +3280,218 @@
       <c r="T37" s="11"/>
     </row>
     <row r="38" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="38">
         <v>8</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="12" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="43" spans="1:20" s="12" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
-      <c r="B43" s="29"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3534,211 +3534,211 @@
       <c r="T43" s="11"/>
     </row>
     <row r="44" spans="1:20" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,6 +3749,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B11:B14"/>
@@ -3757,18 +3769,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A44:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
